--- a/results/mp/tinybert/corona/confidence/126/0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,21 +40,18 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -70,22 +67,25 @@
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
@@ -94,118 +94,109 @@
     <t>won</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>please</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>$</t>
+    <t>online</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
-    <t>and</t>
+    <t>for</t>
+  </si>
+  <si>
+    <t>are</t>
   </si>
   <si>
     <t>of</t>
@@ -214,13 +205,25 @@
     <t>to</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>the</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -665,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="L3">
         <v>21</v>
       </c>
-      <c r="K3">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L3">
-        <v>23</v>
-      </c>
       <c r="M3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -697,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,31 +718,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="L4">
+        <v>56</v>
+      </c>
+      <c r="M4">
+        <v>56</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="L4">
-        <v>17</v>
-      </c>
-      <c r="M4">
-        <v>17</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7058823529411765</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,13 +768,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
         <v>30</v>
@@ -789,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6883116883116883</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="D6">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5416666666666666</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4285714285714285</v>
+        <v>0.2248062015503876</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,31 +918,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>400</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L8">
+        <v>96</v>
+      </c>
+      <c r="M8">
+        <v>96</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>16</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8">
-        <v>10</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3605150214592275</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C9">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,16 +971,16 @@
         <v>149</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.9</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -997,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2558139534883721</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8627450980392157</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,131 +1050,83 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.225</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>336</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.78125</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="L12">
+        <v>64</v>
+      </c>
+      <c r="M12">
+        <v>64</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>18</v>
       </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>62</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L11">
-        <v>48</v>
-      </c>
-      <c r="M11">
-        <v>48</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1555555555555556</v>
-      </c>
-      <c r="C12">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>114</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L12">
-        <v>23</v>
-      </c>
-      <c r="M12">
-        <v>23</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>4</v>
-      </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>95</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.8333333333333334</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
         <v>45</v>
@@ -1189,45 +1144,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.05376344086021505</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>176</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.8275862068965517</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L14">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,21 +1170,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.8235294117647058</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,73 +1196,73 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>10</v>
-      </c>
-      <c r="M16">
-        <v>10</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>10</v>
-      </c>
-      <c r="M17">
-        <v>10</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7647058823529411</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1343,21 +1274,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.76</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1369,21 +1300,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.7413793103448276</v>
+        <v>0.68125</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1395,21 +1326,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.7123287671232876</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L21">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M21">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1421,21 +1352,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6923076923076923</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1447,21 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1473,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1499,21 +1430,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.6153846153846154</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1525,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.6060606060606061</v>
+        <v>0.5483028720626631</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1551,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5446009389671361</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="L27">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="M27">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1577,47 +1508,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>97</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28">
+        <v>0.4831460674157304</v>
+      </c>
+      <c r="L28">
+        <v>43</v>
+      </c>
+      <c r="M28">
+        <v>43</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>46</v>
-      </c>
-      <c r="K28">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="L28">
-        <v>78</v>
-      </c>
-      <c r="M28">
-        <v>78</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.5333333333333333</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1629,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.5263157894736842</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1655,21 +1586,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.4508474576271186</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1681,21 +1612,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1707,21 +1638,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.4961240310077519</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L33">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1733,21 +1664,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.4642857142857143</v>
+        <v>0.3598326359832636</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1759,21 +1690,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.4285714285714285</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1785,21 +1716,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.4166666666666667</v>
+        <v>0.05502392344497608</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1811,21 +1742,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.4054054054054054</v>
+        <v>0.04921700223713647</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1837,21 +1768,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>22</v>
+        <v>850</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.391304347826087</v>
+        <v>0.03473491773308958</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1863,21 +1794,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>56</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.3684210526315789</v>
+        <v>0.0325</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1889,21 +1820,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>24</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.3125</v>
+        <v>0.02996670366259711</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1915,73 +1846,73 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>22</v>
+        <v>874</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.1851851851851852</v>
+        <v>0.02732793522267207</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>44</v>
+        <v>961</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42">
+        <v>0.02246349681767128</v>
+      </c>
+      <c r="L42">
         <v>60</v>
       </c>
-      <c r="K42">
-        <v>0.04146341463414634</v>
-      </c>
-      <c r="L42">
-        <v>17</v>
-      </c>
       <c r="M42">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>393</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.03947368421052631</v>
+        <v>0.0196319018404908</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1993,189 +1924,293 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>438</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.01678657074340528</v>
+        <v>0.01947236180904523</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>820</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.01186623516720604</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="L45">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N45">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="O45">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>916</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>0.01154249737670514</v>
+        <v>0.01641414141414142</v>
       </c>
       <c r="L46">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="M46">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>942</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K47">
-        <v>0.01089449541284404</v>
+        <v>0.01526011560693642</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="N47">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="O47">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>1725</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K48">
-        <v>0.0106951871657754</v>
+        <v>0.01518438177874186</v>
       </c>
       <c r="L48">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N48">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="O48">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1110</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49">
+        <v>0.01301561874249099</v>
+      </c>
+      <c r="L49">
+        <v>65</v>
+      </c>
+      <c r="M49">
         <v>67</v>
       </c>
-      <c r="K49">
-        <v>0.008872651356993737</v>
-      </c>
-      <c r="L49">
-        <v>17</v>
-      </c>
-      <c r="M49">
-        <v>17</v>
-      </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>1899</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50">
+        <v>0.01160541586073501</v>
+      </c>
+      <c r="L50">
+        <v>36</v>
+      </c>
+      <c r="M50">
+        <v>41</v>
+      </c>
+      <c r="N50">
+        <v>0.88</v>
+      </c>
+      <c r="O50">
+        <v>0.12</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K51">
+        <v>0.01122019635343618</v>
+      </c>
+      <c r="L51">
+        <v>24</v>
+      </c>
+      <c r="M51">
+        <v>28</v>
+      </c>
+      <c r="N51">
+        <v>0.86</v>
+      </c>
+      <c r="O51">
+        <v>0.14</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K52">
+        <v>0.01007166376137904</v>
+      </c>
+      <c r="L52">
+        <v>52</v>
+      </c>
+      <c r="M52">
+        <v>54</v>
+      </c>
+      <c r="N52">
+        <v>0.96</v>
+      </c>
+      <c r="O52">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K50">
-        <v>0.006539235412474849</v>
-      </c>
-      <c r="L50">
-        <v>13</v>
-      </c>
-      <c r="M50">
-        <v>14</v>
-      </c>
-      <c r="N50">
-        <v>0.93</v>
-      </c>
-      <c r="O50">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>1975</v>
+      <c r="K53">
+        <v>0.009272137227630969</v>
+      </c>
+      <c r="L53">
+        <v>20</v>
+      </c>
+      <c r="M53">
+        <v>21</v>
+      </c>
+      <c r="N53">
+        <v>0.95</v>
+      </c>
+      <c r="O53">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K54">
+        <v>0.005941213258286429</v>
+      </c>
+      <c r="L54">
+        <v>19</v>
+      </c>
+      <c r="M54">
+        <v>22</v>
+      </c>
+      <c r="N54">
+        <v>0.86</v>
+      </c>
+      <c r="O54">
+        <v>0.14</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>3179</v>
       </c>
     </row>
   </sheetData>
